--- a/INTLINE/data/134/DEUSTATIS/old/First registrations and changes in ownership of motor vehicles and trailers.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/First registrations and changes in ownership of motor vehicles and trailers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="93">
   <si>
     <t>First registrations and changes in ownership of motor
 vehicles and trailers: Germany, months, motor vehicle types</t>
@@ -254,9 +254,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Changes in ownership: used mot. vehicles, trailers</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   </si>
   <si>
     <t>Lorries/trucks</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>Motor buses, trolley buses</t>
@@ -293,7 +293,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 11:36:55</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:12:31</t>
   </si>
 </sst>
 </file>
@@ -17427,16 +17427,16 @@
       <c r="AAG6" t="n" s="10">
         <v>10595.0</v>
       </c>
-      <c r="AAH6" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI6" t="s" s="10">
-        <v>79</v>
+      <c r="AAH6" t="n" s="10">
+        <v>6701.0</v>
+      </c>
+      <c r="AAI6" t="n" s="10">
+        <v>7376.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s" s="13">
         <v>78</v>
@@ -19559,16 +19559,16 @@
       <c r="AAG7" t="n" s="10">
         <v>29558.0</v>
       </c>
-      <c r="AAH7" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI7" t="s" s="10">
-        <v>79</v>
+      <c r="AAH7" t="n" s="10">
+        <v>20867.0</v>
+      </c>
+      <c r="AAI7" t="n" s="10">
+        <v>13253.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s" s="9">
         <v>77</v>
@@ -21694,16 +21694,16 @@
       <c r="AAG8" t="n" s="10">
         <v>178683.0</v>
       </c>
-      <c r="AAH8" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI8" t="s" s="10">
-        <v>79</v>
+      <c r="AAH8" t="n" s="10">
+        <v>198258.0</v>
+      </c>
+      <c r="AAI8" t="n" s="10">
+        <v>227630.0</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s" s="13">
         <v>78</v>
@@ -22717,28 +22717,28 @@
         <v>336098.0</v>
       </c>
       <c r="MB9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MF9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MG9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MH9" t="n" s="10">
         <v>645723.0</v>
       </c>
       <c r="MI9" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MJ9" t="n" s="10">
         <v>601709.0</v>
@@ -23826,16 +23826,16 @@
       <c r="AAG9" t="n" s="10">
         <v>546689.0</v>
       </c>
-      <c r="AAH9" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI9" t="s" s="10">
-        <v>79</v>
+      <c r="AAH9" t="n" s="10">
+        <v>535508.0</v>
+      </c>
+      <c r="AAI9" t="n" s="10">
+        <v>471184.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="9">
         <v>77</v>
@@ -25068,909 +25068,909 @@
         <v>17052.0</v>
       </c>
       <c r="OV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ST10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="US10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZH10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZI10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZJ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZK10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZL10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZM10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZN10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZO10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZP10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZQ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZR10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZS10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZT10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZU10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZV10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZW10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZX10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZY10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZZ10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAA10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAB10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAC10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAD10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAE10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAF10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAG10" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAH10" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AAI10" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="13">
         <v>78</v>
@@ -26984,28 +26984,28 @@
         <v>43772.0</v>
       </c>
       <c r="MB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MH11" t="n" s="10">
         <v>81596.0</v>
       </c>
       <c r="MI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MJ11" t="n" s="10">
         <v>74848.0</v>
@@ -27200,909 +27200,909 @@
         <v>74547.0</v>
       </c>
       <c r="OV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="OZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="PZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="QZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="RZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ST11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="SZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="TZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="US11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="UZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="VZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="WZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="XZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="YZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZH11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZI11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZJ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZK11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZL11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZM11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZN11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZO11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZP11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZQ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZR11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZS11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZT11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZU11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZV11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZW11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZX11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZY11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ZZ11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAA11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAB11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAC11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAD11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAE11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAF11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAG11" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AAH11" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AAI11" t="s" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="9">
         <v>77</v>
@@ -30228,16 +30228,16 @@
       <c r="AAG12" t="n" s="10">
         <v>22982.0</v>
       </c>
-      <c r="AAH12" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI12" t="s" s="10">
-        <v>79</v>
+      <c r="AAH12" t="n" s="10">
+        <v>23341.0</v>
+      </c>
+      <c r="AAI12" t="n" s="10">
+        <v>23243.0</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="13">
         <v>78</v>
@@ -31251,13 +31251,13 @@
         <v>8714.0</v>
       </c>
       <c r="MB13" t="s" s="10">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="MC13" t="s" s="10">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="MD13" t="s" s="10">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="ME13" t="n" s="10">
         <v>19578.0</v>
@@ -32360,11 +32360,11 @@
       <c r="AAG13" t="n" s="10">
         <v>32579.0</v>
       </c>
-      <c r="AAH13" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI13" t="s" s="10">
-        <v>79</v>
+      <c r="AAH13" t="n" s="10">
+        <v>33058.0</v>
+      </c>
+      <c r="AAI13" t="n" s="10">
+        <v>30637.0</v>
       </c>
     </row>
     <row r="14">
@@ -34495,16 +34495,16 @@
       <c r="AAG14" t="n" s="10">
         <v>459.0</v>
       </c>
-      <c r="AAH14" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI14" t="s" s="10">
-        <v>79</v>
+      <c r="AAH14" t="n" s="10">
+        <v>758.0</v>
+      </c>
+      <c r="AAI14" t="n" s="10">
+        <v>1124.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="13">
         <v>78</v>
@@ -35518,13 +35518,13 @@
         <v>344.0</v>
       </c>
       <c r="MB15" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC15" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD15" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME15" t="n" s="10">
         <v>832.0</v>
@@ -36627,11 +36627,11 @@
       <c r="AAG15" t="n" s="10">
         <v>400.0</v>
       </c>
-      <c r="AAH15" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI15" t="s" s="10">
-        <v>79</v>
+      <c r="AAH15" t="n" s="10">
+        <v>373.0</v>
+      </c>
+      <c r="AAI15" t="n" s="10">
+        <v>562.0</v>
       </c>
     </row>
     <row r="16">
@@ -38762,16 +38762,16 @@
       <c r="AAG16" t="n" s="10">
         <v>6923.0</v>
       </c>
-      <c r="AAH16" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI16" t="s" s="10">
-        <v>79</v>
+      <c r="AAH16" t="n" s="10">
+        <v>6673.0</v>
+      </c>
+      <c r="AAI16" t="n" s="10">
+        <v>8079.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="13">
         <v>78</v>
@@ -39785,13 +39785,13 @@
         <v>3833.0</v>
       </c>
       <c r="MB17" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC17" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD17" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME17" t="n" s="10">
         <v>10026.0</v>
@@ -40894,11 +40894,11 @@
       <c r="AAG17" t="n" s="10">
         <v>9568.0</v>
       </c>
-      <c r="AAH17" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI17" t="s" s="10">
-        <v>79</v>
+      <c r="AAH17" t="n" s="10">
+        <v>10408.0</v>
+      </c>
+      <c r="AAI17" t="n" s="10">
+        <v>11127.0</v>
       </c>
     </row>
     <row r="18">
@@ -43029,16 +43029,16 @@
       <c r="AAG18" t="n" s="10">
         <v>1609.0</v>
       </c>
-      <c r="AAH18" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI18" t="s" s="10">
-        <v>79</v>
+      <c r="AAH18" t="n" s="10">
+        <v>1906.0</v>
+      </c>
+      <c r="AAI18" t="n" s="10">
+        <v>2046.0</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s" s="13">
         <v>78</v>
@@ -44052,13 +44052,13 @@
         <v>2945.0</v>
       </c>
       <c r="MB19" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC19" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD19" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME19" t="n" s="10">
         <v>7966.0</v>
@@ -45161,11 +45161,11 @@
       <c r="AAG19" t="n" s="10">
         <v>1321.0</v>
       </c>
-      <c r="AAH19" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI19" t="s" s="10">
-        <v>79</v>
+      <c r="AAH19" t="n" s="10">
+        <v>1454.0</v>
+      </c>
+      <c r="AAI19" t="n" s="10">
+        <v>1297.0</v>
       </c>
     </row>
     <row r="20">
@@ -47296,16 +47296,16 @@
       <c r="AAG20" t="n" s="10">
         <v>25284.0</v>
       </c>
-      <c r="AAH20" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI20" t="s" s="10">
-        <v>79</v>
+      <c r="AAH20" t="n" s="10">
+        <v>24090.0</v>
+      </c>
+      <c r="AAI20" t="n" s="10">
+        <v>18255.0</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s" s="13">
         <v>78</v>
@@ -48319,13 +48319,13 @@
         <v>7003.0</v>
       </c>
       <c r="MB21" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MC21" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="MD21" t="s" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ME21" t="n" s="10">
         <v>21412.0</v>
@@ -49428,11 +49428,11 @@
       <c r="AAG21" t="n" s="10">
         <v>33832.0</v>
       </c>
-      <c r="AAH21" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="AAI21" t="s" s="10">
-        <v>79</v>
+      <c r="AAH21" t="n" s="10">
+        <v>32248.0</v>
+      </c>
+      <c r="AAI21" t="n" s="10">
+        <v>28269.0</v>
       </c>
     </row>
     <row r="22">
@@ -49524,7 +49524,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 11:37:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:12:39&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>